--- a/biology/Botanique/Quercus_coccifera/Quercus_coccifera.xlsx
+++ b/biology/Botanique/Quercus_coccifera/Quercus_coccifera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Chêne des garrigues, Chêne kermès ou Quercus coccifera est une espèce d'arbustes à feuilles persistantes de la famille des Fagacées et de la sous-famille des Fagoideae, spontané dans les terrains pierreux calcaires de la région méditerranéenne, en particulier dans la garrigue.
 Il a également pour noms communs Chêne à cochenille, Chêne-garrigue, Garric.
-En occitan, il est appelé Avaus, Garrolha, Agarrus[1], Garric (ce dernier nom est issu du terme garrigue, littéralement l'arbre de la garrigue).
+En occitan, il est appelé Avaus, Garrolha, Agarrus, Garric (ce dernier nom est issu du terme garrigue, littéralement l'arbre de la garrigue).
 Le Chêne kermès tire son nom de la cochenille qui le parasite, Kermes vermilio (de l'arabe qirmiz (قرمز), du persan qirmiz (قرمز) : sanglant ; rouge ; cochenille).
 </t>
         </is>
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Feuillage.
@@ -553,7 +567,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est originaire du bassin méditerranéen : Afrique du Nord, Europe méridionale, Proche-Orient.
 En France, on le trouve dans la région méditerranéenne, jusqu'à la Drôme vers le nord et l'Aveyron vers l'ouest. Il est très présent dans les Calanques de Marseille et dans les massifs des Bouches du Rhône comme celui de la Sainte-Victoire.
@@ -586,7 +602,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'écorce et les racines du chêne kermès sont riches en tannins, substances utilisées pour le tannage des cuirs et la teinture des filets de pécheurs depuis le Moyen Âge.
 </t>
@@ -617,9 +635,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Chêne kermès abrite une espèce de cigale, la Cigale du garric, ou Cigale des garrigues (Tibicina garricola Boulard, 1983)[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Chêne kermès abrite une espèce de cigale, la Cigale du garric, ou Cigale des garrigues (Tibicina garricola Boulard, 1983).
 Une cochenille, Kermes vermilio (Hémiptère), parasite cet arbre. Après séchage et broyage, on tirait des femelles de cette cochenille une teinture rouge carmin très prisée. Les Romains en avaient promu la culture afin de réserver la pourpre tirée des murex à l'exercice du pouvoir. C'est ainsi qu'elle contribua plusieurs siècles durant à la richesse des teinturiers et tisserands notamment de la ville de Montpellier, célèbre pour ses luxueux tissus teintés de ce rouge. Son déclin commença avec la découverte du nouveau Monde et de la cochenille du Mexique (Dactylopius coccus), exploitée à moindre coûts. Elle ne fut vraiment abandonnée qu'au milieu du XIXe siècle, mais de manière fulgurante, au profit des colorants de synthèse. De surcroît, cette cochenille a été décimée par l'utilisation intensive des pesticides destinés à protéger les vignes, plantées sur les aires déboisées sur lesquelles pousse volontiers le Chêne kermès. C'est pourquoi on ne la trouve désormais quasiment que sur des Chênes kermès éloignés des zones agricoles.
 </t>
         </is>
